--- a/biology/Botanique/Smilax_anceps/Smilax_anceps.xlsx
+++ b/biology/Botanique/Smilax_anceps/Smilax_anceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Smilax anceps est une espèce de plantes à fleurs de la famille des Smilacaceae. C'est une liane ou un buisson vigoureux, l'une des quelque 278 espèces du genre Smilax. L'espèce est répandue en Afrique tropicale, en Afrique australe, à la Réunion, à Maurice, aux Comores et à Madagascar[1]. À la Réunion elle est connue sous les noms vernaculaires de Croc de chien ou d'Esquine. À l’Île Maurice on la désigne sous le nom de Salsepareille[2].
-Son nom spécifique « anceps » signifie en latin « dangereux », une mise en garde contre ses épines en forme de crochets. Tarundia cinctipennis Stål, 1862, un insecte hémiptère, est associé à cette plante[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Smilax anceps est une espèce de plantes à fleurs de la famille des Smilacaceae. C'est une liane ou un buisson vigoureux, l'une des quelque 278 espèces du genre Smilax. L'espèce est répandue en Afrique tropicale, en Afrique australe, à la Réunion, à Maurice, aux Comores et à Madagascar. À la Réunion elle est connue sous les noms vernaculaires de Croc de chien ou d'Esquine. À l’Île Maurice on la désigne sous le nom de Salsepareille.
+Son nom spécifique « anceps » signifie en latin « dangereux », une mise en garde contre ses épines en forme de crochets. Tarundia cinctipennis Stål, 1862, un insecte hémiptère, est associé à cette plante.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tiges sont dures et fibreuses atteignant 5 m de long, armées de nombreuses épines crochues et de paires de vrilles enroulées à la base des pétioles des feuilles. Les feuilles sont entières, alternes, ovales à elliptiques à légèrement circulaires, de 4 à 14 cm de long, avec une texture coriace. Les pétioles sont 0,5-2,5 cm de long, épaissi et canalisé au-dessus. Les inflorescences sont des ombelles axillaires globuleuses à nombreuses fleurs, avec des pédoncules d'environ 3 cm de long et 2 bractées ovales vers le milieu, et environ 5 mm de long. Les fleurs de la même inflorescence sont unisexuées, avec des segments de périanthe de  3 à 5 mm de long, recourbé, blanc verdâtre, jaunâtre ou brunâtre. Le fruit est une baie globuleuse ayant entre 8 et 10 mm de diamètre, virant du rouge au violacé au noir à maturité, légèrement sucré et acidulé[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges sont dures et fibreuses atteignant 5 m de long, armées de nombreuses épines crochues et de paires de vrilles enroulées à la base des pétioles des feuilles. Les feuilles sont entières, alternes, ovales à elliptiques à légèrement circulaires, de 4 à 14 cm de long, avec une texture coriace. Les pétioles sont 0,5-2,5 cm de long, épaissi et canalisé au-dessus. Les inflorescences sont des ombelles axillaires globuleuses à nombreuses fleurs, avec des pédoncules d'environ 3 cm de long et 2 bractées ovales vers le milieu, et environ 5 mm de long. Les fleurs de la même inflorescence sont unisexuées, avec des segments de périanthe de  3 à 5 mm de long, recourbé, blanc verdâtre, jaunâtre ou brunâtre. Le fruit est une baie globuleuse ayant entre 8 et 10 mm de diamètre, virant du rouge au violacé au noir à maturité, légèrement sucré et acidulé.
 Cette espèce a été décrite et publiée pour la première fois en 1806 par Carl Ludwig von Willdenow, le premier phytogéographe allemand dans " Species Plantarum " Editio Quarto 4 : 782.
 </t>
         </is>
